--- a/7974.T.xlsx
+++ b/7974.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D43E7B-E5B0-4360-BF83-A3122E0D512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BE52A-D290-4275-9DEA-56294EB60566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{9974712D-150E-4691-A692-4CE4843C2B93}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{9974712D-150E-4691-A692-4CE4843C2B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>numbers in mio Yen</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>FQ324</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -160,19 +157,70 @@
   </si>
   <si>
     <t>Net Income to Company</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Nintendo Switch &amp; others</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>FQ425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -229,19 +277,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -579,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC4688A-9AE0-41C0-A478-CA4E5F9828FE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -604,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="3">
-        <v>10935</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -614,8 +666,8 @@
       <c r="I3" s="3">
         <v>1298.69</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
+      <c r="J3" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -627,7 +679,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>14201175.15</v>
+        <v>16623232</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -638,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>1484350</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>1586275</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -651,8 +703,8 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
+      <c r="J6" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -661,7 +713,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>12716825.15</v>
+        <v>15036957</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -684,13 +736,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F259A76-CCE3-4B6C-BE81-7BEF05BE7BDB}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -703,12 +755,12 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -733,506 +785,568 @@
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1083534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="2">
+        <v>67673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="2">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7">
+        <v>1394796</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="7">
+        <v>956218</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="V7" s="1">
+        <v>1164922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7">
-        <v>1394796</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="7">
-        <v>956218</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>616559</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>390692</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="V8" s="2">
+        <v>454754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>616559</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>390692</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:H6" si="0">+C4-C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:H9" si="0">+C7-C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>778237</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <f>+I4-I5</f>
+      <c r="I9" s="3">
+        <f>+I7-I8</f>
         <v>565526</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" ref="J6" si="1">+J4-J5</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>313826</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>317927</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:H8" si="2">+C6-C7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>464411</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <f>+I6-I7</f>
-        <v>247599</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" ref="J8" si="3">+J6-J7</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>36602</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>44056</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9" si="1">+J7-J8</f>
+        <v>0</v>
+      </c>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V9" s="2">
+        <f>+V7-V8</f>
+        <v>710168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>24839</v>
+        <v>313826</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>23387</v>
+        <v>317927</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V10" s="2">
+        <v>427614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:H11" si="2">+C9-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E11" s="3">
-        <v>34264</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <f t="shared" si="2"/>
+        <v>464411</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
-        <v>6238</v>
-      </c>
-      <c r="J11" s="3"/>
+        <f>+I9-I10</f>
+        <v>247599</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" ref="J11" si="3">+J9-J10</f>
+        <v>0</v>
+      </c>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V11" s="2">
+        <f>+V9-V10</f>
+        <v>282554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>7586</v>
+        <v>36602</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>6259</v>
+        <v>44056</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V12" s="2">
+        <v>56176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>93</v>
+        <v>24839</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>151</v>
+        <v>23387</v>
       </c>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+      <c r="V13" s="2">
+        <v>35125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <v>68</v>
+        <v>34264</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>220</v>
+        <v>6238</v>
       </c>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3"/>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>183</v>
+        <v>7586</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>50</v>
+        <v>6259</v>
       </c>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+      <c r="V15" s="2">
+        <v>7091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:H16" si="4">+C8+SUM(C9:C12)-SUM(C13:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <f t="shared" si="4"/>
-        <v>567358</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <f>+I8+SUM(I9:I12)-SUM(I13:I15)</f>
-        <v>327118</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" ref="J16" si="5">+J8+SUM(J9:J12)-SUM(J13:J15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:H19" si="6">+C16+C17-C18</f>
+        <f t="shared" ref="C19:H19" si="4">+C11+SUM(C12:C15)-SUM(C16:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="6"/>
-        <v>567299</v>
+        <f t="shared" si="4"/>
+        <v>567358</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f>+I16+I17-I18</f>
-        <v>327123</v>
+        <f>+I11+SUM(I12:I15)-SUM(I16:I18)</f>
+        <v>327118</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="7">+J16+J17-J18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J19" si="5">+J11+SUM(J12:J15)-SUM(J16:J18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <v>159241</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
+        <v>59</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>54</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:H22" si="6">+C19+C20-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="6"/>
+        <v>567299</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f>+I19+I20-I21</f>
+        <v>327123</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" ref="J22" si="7">+J19+J20-J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>159241</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>89900</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:H21" si="8">+C19-C20</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:H24" si="8">+C22-C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E24" s="3">
         <f t="shared" si="8"/>
         <v>408058</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F24" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="3">
-        <f>+I19-I20</f>
+      <c r="I24" s="3">
+        <f>+I22-I23</f>
         <v>237223</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="J21" si="9">+J19-J20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>32</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:H23" si="10">+C21-C22</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="10"/>
-        <v>408043</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <f>+I21-I22</f>
-        <v>237191</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" ref="J23" si="11">+J21-J22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="3">
+        <f t="shared" ref="J24" si="9">+J22-J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>15</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>32</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:H26" si="10">+C24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="10"/>
+        <v>408043</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f>+I24-I25</f>
+        <v>237191</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26" si="11">+J24-J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1242,7 +1356,10 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1252,7 +1369,10 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1261,8 +1381,11 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="V29" s="2">
+        <v>1298.69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1272,7 +1395,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1282,7 +1405,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1762,6 +1885,36 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7977C6F7-4233-4A57-8709-88EAE5D3156F}"/>
